--- a/DOCP_optimization_3bus_example.xlsx
+++ b/DOCP_optimization_3bus_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pm.deoliveiradejes/Dropbox (Personal)/Ongoing Research/software3/Urda3bus_dynamicchanges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE289AE-34AD-0D41-9FFF-469463527794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B28972-C9AF-494F-BDF3-4D44DDFC3612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="37920" windowHeight="23220" xr2:uid="{A2977F88-2306-084C-88E0-6AF9B986A493}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="37920" windowHeight="23220" xr2:uid="{A2977F88-2306-084C-88E0-6AF9B986A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Three_bus_without_transients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,8 @@
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Three_bus_with_transients!$Q$21:$Q$26</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Three_bus_without_transients!$Q$21:$Q$26</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Three_bus_with_transients!$S$21:$S$32</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Three_bus_without_transients!$S$21:$S$32</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Three_bus_without_transients!$S$21:$S$26</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
@@ -104,7 +105,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -602,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -745,24 +746,6 @@
     <xf numFmtId="165" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,15 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -802,13 +776,22 @@
     <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -19167,7 +19150,7 @@
   <dimension ref="B1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19200,11 +19183,11 @@
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -19218,27 +19201,27 @@
         <v>32</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53" t="s">
+      <c r="J4" s="64"/>
+      <c r="K4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="50" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50" t="s">
+      <c r="N4" s="62"/>
+      <c r="O4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="58" t="s">
+      <c r="P4" s="62"/>
+      <c r="Q4" s="52" t="s">
         <v>43</v>
       </c>
       <c r="R4" s="10">
@@ -19293,7 +19276,7 @@
       <c r="P5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="58" t="s">
+      <c r="Q5" s="52" t="s">
         <v>44</v>
       </c>
       <c r="R5" s="10">
@@ -19336,11 +19319,11 @@
       <c r="L6" s="26">
         <v>0.81938924518843603</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="53">
         <f>alpha1/((K6/pick1)^alpha2-1)</f>
         <v>2.4198802517424123</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="55">
         <f>alpha1/((L6/pick5)^alpha2-1)</f>
         <v>2.9393121905661372</v>
       </c>
@@ -19387,11 +19370,11 @@
       <c r="L7" s="27">
         <v>1.0377390252476899</v>
       </c>
-      <c r="M7" s="63">
+      <c r="M7" s="54">
         <f>alpha1/((K7/pick3)^alpha2-1)</f>
         <v>2.5921036814039367</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="51">
         <f>alpha1/((L7/pick1)^alpha2-1)</f>
         <v>5.5708240881443452</v>
       </c>
@@ -19441,11 +19424,11 @@
       <c r="L8" s="27">
         <v>2.24680669339494</v>
       </c>
-      <c r="M8" s="63">
+      <c r="M8" s="54">
         <f>alpha1/((K8/pick5 )^alpha2-1)</f>
         <v>1.6615690717484448</v>
       </c>
-      <c r="N8" s="57">
+      <c r="N8" s="51">
         <f>alpha1/((L8/pick3)^alpha2-1)</f>
         <v>2.8243845089623703</v>
       </c>
@@ -19498,7 +19481,7 @@
       <c r="L9" s="27">
         <v>0.18353622353322699</v>
       </c>
-      <c r="M9" s="55">
+      <c r="M9" s="39">
         <f>alpha1/((K9/pick2 )^alpha2-1)</f>
         <v>2.4588959262470138</v>
       </c>
@@ -19555,11 +19538,11 @@
       <c r="L10" s="27">
         <v>0.61920913214346796</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="39">
         <f>alpha1/((K10/pick4 )^alpha2-1)</f>
         <v>2.9009336144677293</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="39">
         <f>alpha1/((L10/pick6)^alpha2-1)</f>
         <v>6.1242649236742253</v>
       </c>
@@ -19612,11 +19595,11 @@
       <c r="L11" s="27">
         <v>0.77631252338074497</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="39">
         <f>alpha1/((K11/pick6 )^alpha2-1)</f>
         <v>4.6820781666402311</v>
       </c>
-      <c r="N11" s="55">
+      <c r="N11" s="39">
         <f>alpha1/((L11/pick2)^alpha2-1)</f>
         <v>2.6647474157122635</v>
       </c>
@@ -19669,11 +19652,11 @@
       <c r="L12" s="26">
         <v>0.61918184210603699</v>
       </c>
-      <c r="M12" s="61">
+      <c r="M12" s="36">
         <f>alpha1/((K12/pick1)^alpha2-1)</f>
         <v>5.570746906584211</v>
       </c>
-      <c r="N12" s="61">
+      <c r="N12" s="36">
         <f>alpha1/((L12/pick5)^alpha2-1)</f>
         <v>3.3511647974222418</v>
       </c>
@@ -19726,11 +19709,11 @@
       <c r="L13" s="27">
         <v>0.77635090748702296</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="39">
         <f>alpha1/((K13/pick3)^alpha2-1)</f>
         <v>2.8243391882495099</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13" s="39">
         <f>alpha1/((L13/pick1)^alpha2-1)</f>
         <v>7.2922716858196868</v>
       </c>
@@ -19783,7 +19766,7 @@
       <c r="L14" s="27">
         <v>0.18348215767811901</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="39">
         <f>alpha1/((K14/pick5 )^alpha2-1)</f>
         <v>2.9392310268024175</v>
       </c>
@@ -19834,11 +19817,11 @@
       <c r="L15" s="27">
         <v>2.5331190189894199</v>
       </c>
-      <c r="M15" s="63">
+      <c r="M15" s="54">
         <f>alpha1/((K15/pick2 )^alpha2-1)</f>
         <v>1.5719492157165942</v>
       </c>
-      <c r="N15" s="57">
+      <c r="N15" s="51">
         <f>alpha1/((L15/pick4)^alpha2-1)</f>
         <v>2.9009715997713097</v>
       </c>
@@ -19885,11 +19868,11 @@
       <c r="L16" s="27">
         <v>0.87256935270486102</v>
       </c>
-      <c r="M16" s="63">
+      <c r="M16" s="54">
         <f>alpha1/((K16/pick4 )^alpha2-1)</f>
         <v>2.6370922564260635</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="51">
         <f>alpha1/((L16/pick6)^alpha2-1)</f>
         <v>4.6821476001100226</v>
       </c>
@@ -19936,11 +19919,11 @@
       <c r="L17" s="28">
         <v>0.95622517626859704</v>
       </c>
-      <c r="M17" s="66">
+      <c r="M17" s="57">
         <f>alpha1/((K17/pick6 )^alpha2-1)</f>
         <v>2.0877988068150684</v>
       </c>
-      <c r="N17" s="65">
+      <c r="N17" s="56">
         <f>alpha1/((L17/pick2)^alpha2-1)</f>
         <v>2.4589550433974443</v>
       </c>
@@ -19958,54 +19941,54 @@
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.2">
       <c r="S19" s="1"/>
-      <c r="T19" s="69" t="s">
+      <c r="T19" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="70"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="1"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="K20" s="51" t="s">
+      <c r="K20" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
       <c r="Q20" s="11" t="s">
         <v>2</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" s="67">
+      <c r="K21" s="58">
         <f>-M6</f>
         <v>-2.4198802517424123</v>
       </c>
-      <c r="L21" s="60">
+      <c r="L21" s="14">
         <v>0</v>
       </c>
-      <c r="M21" s="60">
+      <c r="M21" s="14">
         <v>0</v>
       </c>
-      <c r="N21" s="60">
+      <c r="N21" s="14">
         <v>0</v>
       </c>
-      <c r="O21" s="68">
+      <c r="O21" s="59">
         <f>N6</f>
         <v>2.9393121905661372</v>
       </c>
-      <c r="P21" s="60">
+      <c r="P21" s="14">
         <v>0</v>
       </c>
       <c r="Q21" s="19">
@@ -20018,35 +20001,35 @@
       <c r="T21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U21" s="70">
+      <c r="U21" s="1">
         <f>-K21*Q21</f>
         <v>0.27326331266595283</v>
       </c>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J22">
         <v>2</v>
       </c>
-      <c r="K22" s="60">
+      <c r="K22" s="14">
         <v>0</v>
       </c>
-      <c r="L22" s="67">
+      <c r="L22" s="58">
         <f>-M15</f>
         <v>-1.5719492157165942</v>
       </c>
-      <c r="M22" s="60">
+      <c r="M22" s="14">
         <v>0</v>
       </c>
-      <c r="N22" s="68">
+      <c r="N22" s="59">
         <f>N15</f>
         <v>2.9009715997713097</v>
       </c>
-      <c r="O22" s="60">
+      <c r="O22" s="14">
         <v>0</v>
       </c>
-      <c r="P22" s="60">
+      <c r="P22" s="14">
         <v>0</v>
       </c>
       <c r="Q22" s="19">
@@ -20058,35 +20041,35 @@
       <c r="T22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="U22" s="70">
+      <c r="U22" s="1">
         <f>-L22*Q22</f>
         <v>0.3194771952284377</v>
       </c>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J23">
         <v>3</v>
       </c>
-      <c r="K23" s="68">
+      <c r="K23" s="59">
         <f>N7</f>
         <v>5.5708240881443452</v>
       </c>
-      <c r="L23" s="60">
+      <c r="L23" s="14">
         <v>0</v>
       </c>
-      <c r="M23" s="67">
+      <c r="M23" s="58">
         <f>-M7</f>
         <v>-2.5921036814039367</v>
       </c>
-      <c r="N23" s="60">
+      <c r="N23" s="14">
         <v>0</v>
       </c>
-      <c r="O23" s="60">
+      <c r="O23" s="14">
         <v>0</v>
       </c>
-      <c r="P23" s="60">
+      <c r="P23" s="14">
         <v>0</v>
       </c>
       <c r="Q23" s="19">
@@ -20101,34 +20084,34 @@
       <c r="T23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="U23" s="70">
+      <c r="U23" s="1">
         <f>-M23*Q23</f>
         <v>0.42908147764253218</v>
       </c>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J24">
         <v>4</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="14">
         <v>0</v>
       </c>
-      <c r="L24" s="60">
+      <c r="L24" s="14">
         <v>0</v>
       </c>
-      <c r="M24" s="60">
+      <c r="M24" s="14">
         <v>0</v>
       </c>
-      <c r="N24" s="67">
+      <c r="N24" s="58">
         <f>-M16</f>
         <v>-2.6370922564260635</v>
       </c>
-      <c r="O24" s="60">
+      <c r="O24" s="14">
         <v>0</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="59">
         <f>N16</f>
         <v>4.6821476001100226</v>
       </c>
@@ -20141,35 +20124,35 @@
       <c r="T24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="U24" s="70">
+      <c r="U24" s="1">
         <f>-N24*Q24</f>
         <v>0.47222430209816313</v>
       </c>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J25">
         <v>5</v>
       </c>
-      <c r="K25" s="60">
+      <c r="K25" s="14">
         <v>0</v>
       </c>
-      <c r="L25" s="60">
+      <c r="L25" s="14">
         <v>0</v>
       </c>
-      <c r="M25" s="68">
+      <c r="M25" s="59">
         <f>N8</f>
         <v>2.8243845089623703</v>
       </c>
-      <c r="N25" s="60">
+      <c r="N25" s="14">
         <v>0</v>
       </c>
-      <c r="O25" s="67">
+      <c r="O25" s="58">
         <f>-M8</f>
         <v>-1.6615690717484448</v>
       </c>
-      <c r="P25" s="60">
+      <c r="P25" s="14">
         <v>0</v>
       </c>
       <c r="Q25" s="19">
@@ -20181,34 +20164,34 @@
       <c r="T25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U25" s="70">
+      <c r="U25" s="1">
         <f>-O25*Q25</f>
         <v>0.26753186878668422</v>
       </c>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J26">
         <v>6</v>
       </c>
-      <c r="K26" s="60">
+      <c r="K26" s="14">
         <v>0</v>
       </c>
-      <c r="L26" s="68">
+      <c r="L26" s="59">
         <f>N17</f>
         <v>2.4589550433974443</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M26" s="14">
         <v>0</v>
       </c>
-      <c r="N26" s="60">
+      <c r="N26" s="14">
         <v>0</v>
       </c>
-      <c r="O26" s="60">
+      <c r="O26" s="14">
         <v>0</v>
       </c>
-      <c r="P26" s="67">
+      <c r="P26" s="58">
         <f>-M17</f>
         <v>-2.0877988068150684</v>
       </c>
@@ -20221,18 +20204,18 @@
       <c r="T26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="U26" s="70">
+      <c r="U26" s="1">
         <f>-P26*Q26</f>
         <v>0.29974900746080235</v>
       </c>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.2">
       <c r="T28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="U28" s="71">
+      <c r="U28" s="60">
         <f>SUM(U21:U26)</f>
         <v>2.0613271638825728</v>
       </c>
@@ -20297,16 +20280,16 @@
       <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="59" t="s">
+      <c r="AB1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="59"/>
+      <c r="AC1" s="63"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="58" t="s">
+      <c r="AB2" s="52" t="s">
         <v>43</v>
       </c>
       <c r="AC2" s="10">
@@ -20317,7 +20300,7 @@
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="58" t="s">
+      <c r="AB3" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC3" s="10">
@@ -20336,38 +20319,38 @@
         <v>32</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53" t="s">
+      <c r="J4" s="64"/>
+      <c r="K4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="50" t="s">
+      <c r="N4" s="64"/>
+      <c r="O4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50" t="s">
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50" t="s">
+      <c r="R4" s="62"/>
+      <c r="S4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50" t="s">
+      <c r="T4" s="62"/>
+      <c r="U4" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="50"/>
+      <c r="V4" s="62"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2" t="s">
         <v>34</v>
@@ -20612,7 +20595,7 @@
       <c r="V7" s="30">
         <v>-79.424709674563601</v>
       </c>
-      <c r="W7" s="54">
+      <c r="W7" s="39">
         <f>O10*(R7/P7-Q7/O7)</f>
         <v>-0.33016281547187143</v>
       </c>
@@ -20762,7 +20745,7 @@
       <c r="N9" s="27">
         <v>0.75459297255862301</v>
       </c>
-      <c r="O9" s="55">
+      <c r="O9" s="39">
         <f>alpha1/((K9/pick2 )^alpha2-1)</f>
         <v>2.4588959262470138</v>
       </c>
@@ -20790,7 +20773,7 @@
       <c r="V9" s="30">
         <v>-77.058746236934397</v>
       </c>
-      <c r="W9" s="54">
+      <c r="W9" s="39">
         <f>O6*(R9/P9-Q9/O9)</f>
         <v>-2.7691675289173658</v>
       </c>
@@ -20851,11 +20834,11 @@
       <c r="N10" s="27">
         <v>0.90163978238753795</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="39">
         <f>alpha1/((K10/pick4 )^alpha2-1)</f>
         <v>2.9009336144677293</v>
       </c>
-      <c r="P10" s="56">
+      <c r="P10" s="50">
         <f>alpha1/((L10/pick6)^alpha2-1)</f>
         <v>6.1242649236742253</v>
       </c>
@@ -20940,11 +20923,11 @@
       <c r="N11" s="27">
         <v>0.24751664322241601</v>
       </c>
-      <c r="O11" s="55">
+      <c r="O11" s="39">
         <f>alpha1/((K11/pick6 )^alpha2-1)</f>
         <v>4.6820781666402311</v>
       </c>
-      <c r="P11" s="56">
+      <c r="P11" s="50">
         <f>alpha1/((L11/pick2)^alpha2-1)</f>
         <v>2.6647474157122635</v>
       </c>
@@ -21491,24 +21474,24 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="U19" s="52" t="s">
+      <c r="U19" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="V19" s="52"/>
+      <c r="V19" s="65"/>
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="51" t="s">
+      <c r="K20" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
       <c r="Q20" s="11" t="s">
         <v>2</v>
       </c>
@@ -22022,16 +22005,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="U19:V19"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOCP_optimization_3bus_example.xlsx
+++ b/DOCP_optimization_3bus_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pm.deoliveiradejes/Dropbox (Personal)/Ongoing Research/software3/Urda3bus_dynamicchanges/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pm.deoliveiradejes\Dropbox\Ongoing Research\software3\Urda3bus_dynamicchanges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B28972-C9AF-494F-BDF3-4D44DDFC3612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5DBC2D-B30D-47CF-A489-36E9A11BF4D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="37920" windowHeight="23220" xr2:uid="{A2977F88-2306-084C-88E0-6AF9B986A493}"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="37920" windowHeight="23220" activeTab="1" xr2:uid="{A2977F88-2306-084C-88E0-6AF9B986A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Three_bus_without_transients" sheetId="4" r:id="rId1"/>
@@ -105,18 +105,12 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -429,7 +423,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -839,8 +833,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8744857" y="580571"/>
-          <a:ext cx="4713081" cy="1951348"/>
+          <a:off x="8754867" y="575566"/>
+          <a:ext cx="4745613" cy="1926324"/>
           <a:chOff x="1999434" y="4061335"/>
           <a:chExt cx="4713081" cy="1951348"/>
         </a:xfrm>
@@ -9835,8 +9829,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7483928" y="7184571"/>
-          <a:ext cx="4713081" cy="1951348"/>
+          <a:off x="7601857" y="7343321"/>
+          <a:ext cx="4744831" cy="1996705"/>
           <a:chOff x="1999434" y="4061335"/>
           <a:chExt cx="4713081" cy="1951348"/>
         </a:xfrm>
@@ -18848,7 +18842,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -19149,37 +19143,37 @@
   </sheetPr>
   <dimension ref="B1:Y37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="10" width="4.33203125" customWidth="1"/>
-    <col min="11" max="15" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="10" width="4.375" customWidth="1"/>
+    <col min="11" max="15" width="7.625" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="18" width="7.6640625" customWidth="1"/>
-    <col min="19" max="22" width="8.83203125" customWidth="1"/>
-    <col min="23" max="23" width="9.83203125" customWidth="1"/>
-    <col min="24" max="25" width="6.1640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.625" customWidth="1"/>
+    <col min="19" max="22" width="8.875" customWidth="1"/>
+    <col min="23" max="23" width="9.875" customWidth="1"/>
+    <col min="24" max="25" width="6.125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="2.5" customWidth="1"/>
-    <col min="28" max="28" width="5.1640625" customWidth="1"/>
+    <col min="28" max="28" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25">
       <c r="B1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25">
       <c r="B2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25">
       <c r="B3" t="s">
         <v>37</v>
       </c>
@@ -19189,7 +19183,7 @@
       <c r="R3" s="63"/>
       <c r="S3" s="63"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -19230,7 +19224,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -19285,7 +19279,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -19336,7 +19330,7 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -19390,7 +19384,7 @@
       <c r="X7"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -19447,7 +19441,7 @@
       <c r="X8"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -19504,7 +19498,7 @@
       <c r="X9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -19561,7 +19555,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -19618,7 +19612,7 @@
       <c r="X11"/>
       <c r="Y11"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
@@ -19675,7 +19669,7 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -19732,7 +19726,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -19783,7 +19777,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -19834,7 +19828,7 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -19885,7 +19879,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25">
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
@@ -19936,10 +19930,10 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25">
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25">
       <c r="S19" s="1"/>
       <c r="T19" s="63" t="s">
         <v>24</v>
@@ -19948,7 +19942,7 @@
       <c r="V19" s="63"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25">
       <c r="K20" s="61" t="s">
         <v>0</v>
       </c>
@@ -19967,7 +19961,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25">
       <c r="J21">
         <v>1</v>
       </c>
@@ -19992,23 +19986,23 @@
         <v>0</v>
       </c>
       <c r="Q21" s="19">
-        <v>0.112924312047752</v>
+        <v>0.11292431200074263</v>
       </c>
       <c r="S21" s="20">
         <f t="array" ref="S21:S26">MMULT(K21:P26,Q21:Q26)</f>
-        <v>0.20000000010272212</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>25</v>
       </c>
       <c r="U21" s="1">
         <f>-K21*Q21</f>
-        <v>0.27326331266595283</v>
+        <v>0.27326331255219577</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25">
       <c r="J22">
         <v>2</v>
       </c>
@@ -20033,22 +20027,22 @@
         <v>0</v>
       </c>
       <c r="Q22" s="19">
-        <v>0.20323633361323301</v>
+        <v>0.20323633354449649</v>
       </c>
       <c r="S22" s="20">
-        <v>0.20000000006892255</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="T22" s="6" t="s">
         <v>50</v>
       </c>
       <c r="U22" s="1">
         <f>-L22*Q22</f>
-        <v>0.3194771952284377</v>
+        <v>0.31947719512038741</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25">
       <c r="J23">
         <v>3</v>
       </c>
@@ -20073,25 +20067,25 @@
         <v>0</v>
       </c>
       <c r="Q23" s="19">
-        <v>0.16553407208238399</v>
+        <v>0.16553407200072537</v>
       </c>
       <c r="R23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="S23" s="20">
-        <v>0.20000000005021329</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="T23" s="6" t="s">
         <v>49</v>
       </c>
       <c r="U23" s="1">
         <f>-M23*Q23</f>
-        <v>0.42908147764253218</v>
+        <v>0.42908147743086456</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25">
       <c r="J24">
         <v>4</v>
       </c>
@@ -20116,22 +20110,22 @@
         <v>4.6821476001100226</v>
       </c>
       <c r="Q24" s="19">
-        <v>0.179070072708851</v>
+        <v>0.17907007264784633</v>
       </c>
       <c r="S24" s="20">
-        <v>0.20000000004086604</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="T24" s="6" t="s">
         <v>51</v>
       </c>
       <c r="U24" s="1">
         <f>-N24*Q24</f>
-        <v>0.47222430209816313</v>
+        <v>0.4722243019372882</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25">
       <c r="J25">
         <v>5</v>
       </c>
@@ -20156,22 +20150,22 @@
         <v>0</v>
       </c>
       <c r="Q25" s="19">
-        <v>0.16101158437257401</v>
+        <v>0.16101158429892443</v>
       </c>
       <c r="S25" s="20">
-        <v>0.20000000010826147</v>
+        <v>0.2</v>
       </c>
       <c r="T25" s="6" t="s">
         <v>52</v>
       </c>
       <c r="U25" s="1">
         <f>-O25*Q25</f>
-        <v>0.26753186878668422</v>
+        <v>0.26753186866431033</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25">
       <c r="J26">
         <v>6</v>
       </c>
@@ -20196,41 +20190,41 @@
         <v>-2.0877988068150684</v>
       </c>
       <c r="Q26" s="19">
-        <v>0.14357178789562999</v>
+        <v>0.14357178785254271</v>
       </c>
       <c r="S26" s="20">
-        <v>0.20000000007906249</v>
+        <v>0.2</v>
       </c>
       <c r="T26" s="6" t="s">
         <v>53</v>
       </c>
       <c r="U26" s="1">
         <f>-P26*Q26</f>
-        <v>0.29974900746080235</v>
+        <v>0.29974900737084481</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25">
       <c r="T28" s="6" t="s">
         <v>54</v>
       </c>
       <c r="U28" s="60">
         <f>SUM(U21:U26)</f>
-        <v>2.0613271638825728</v>
+        <v>2.0613271630758909</v>
       </c>
     </row>
-    <row r="33" spans="18:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="18:21">
       <c r="U33" s="1"/>
     </row>
-    <row r="35" spans="18:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="18:21">
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="18:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="18:21">
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="18:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="18:21">
       <c r="U37" s="1"/>
     </row>
   </sheetData>
@@ -20256,27 +20250,27 @@
   </sheetPr>
   <dimension ref="B1:AC36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="10" width="4.33203125" customWidth="1"/>
-    <col min="11" max="15" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="10" width="4.375" customWidth="1"/>
+    <col min="11" max="15" width="7.625" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="18" width="7.6640625" customWidth="1"/>
-    <col min="19" max="22" width="8.83203125" customWidth="1"/>
-    <col min="23" max="23" width="9.83203125" customWidth="1"/>
-    <col min="24" max="25" width="6.1640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.625" customWidth="1"/>
+    <col min="19" max="22" width="8.875" customWidth="1"/>
+    <col min="23" max="23" width="9.875" customWidth="1"/>
+    <col min="24" max="25" width="6.125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="2.5" customWidth="1"/>
-    <col min="28" max="28" width="5.1640625" customWidth="1"/>
+    <col min="28" max="28" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="B1" t="s">
         <v>41</v>
       </c>
@@ -20285,7 +20279,7 @@
       </c>
       <c r="AC1" s="63"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:29">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -20296,7 +20290,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29">
       <c r="B3" t="s">
         <v>37</v>
       </c>
@@ -20307,7 +20301,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -20358,7 +20352,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -20438,7 +20432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -20527,7 +20521,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -20616,7 +20610,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -20705,7 +20699,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:29">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -20794,7 +20788,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:29">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -20883,7 +20877,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:29">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -20972,7 +20966,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:29">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
@@ -21055,7 +21049,7 @@
         <v>-1.3391316716759885</v>
       </c>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:29">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -21138,7 +21132,7 @@
         <v>-2.5273619887352097</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:29">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -21221,7 +21215,7 @@
         <v>-1.8483288249870145</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:29">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -21304,7 +21298,7 @@
         <v>-5.5079185398582702</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:29">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -21387,7 +21381,7 @@
         <v>-2.7474032970096647</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26">
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
@@ -21470,17 +21464,17 @@
         <v>-2.9021268406640557</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:26">
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:26">
       <c r="U19" s="65" t="s">
         <v>24</v>
       </c>
       <c r="V19" s="65"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -21506,7 +21500,7 @@
       </c>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:26">
       <c r="C21" t="s">
         <v>46</v>
       </c>
@@ -21538,22 +21532,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="19">
-        <v>0.11292431200074136</v>
+        <v>0.11292431200074263</v>
       </c>
       <c r="S21" s="20">
         <f t="array" ref="S21:S32">MMULT(K21:P32,Q21:Q26)</f>
-        <v>0.38471661688545811</v>
+        <v>0.384716616885457</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2">
         <f>U22+(Q9*(Q22-(U22)/(O9)))</f>
-        <v>0.50002148886966391</v>
+        <v>0.50002148886966324</v>
       </c>
       <c r="W21" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:26">
       <c r="C22" t="s">
         <v>45</v>
       </c>
@@ -21581,22 +21575,22 @@
         <v>0</v>
       </c>
       <c r="Q22" s="19">
-        <v>0.21208618204515892</v>
+        <v>0.21208618204515853</v>
       </c>
       <c r="S22" s="20">
-        <v>0.19999999999999934</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="T22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="U22" s="1">
         <f>-K22*Q21</f>
-        <v>0.27326331255219272</v>
+        <v>0.27326331255219577</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="10"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:26">
       <c r="C23" t="s">
         <v>47</v>
       </c>
@@ -21625,25 +21619,25 @@
         <v>4.5787414372637594</v>
       </c>
       <c r="Q23" s="19">
-        <v>0.16553407200072434</v>
+        <v>0.16553407200072537</v>
       </c>
       <c r="R23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="S23" s="20">
-        <v>0.28386968674528573</v>
+        <v>0.28386968674528629</v>
       </c>
       <c r="T23" s="6"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1">
         <f>U24+(O10*(Q24-(U24)/(Q10)))</f>
-        <v>0.51686844553692513</v>
+        <v>0.51686844553692535</v>
       </c>
       <c r="W23" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26">
       <c r="C24" t="s">
         <v>45</v>
       </c>
@@ -21671,22 +21665,22 @@
         <v>0</v>
       </c>
       <c r="Q24" s="19">
-        <v>0.18386553924632065</v>
+        <v>0.18386553924632076</v>
       </c>
       <c r="S24" s="20">
-        <v>0.19999999999999563</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="T24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="U24" s="1">
         <f>-M24*Q23</f>
-        <v>0.42908147743086189</v>
+        <v>0.42908147743086456</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:26">
       <c r="C25" t="s">
         <v>46</v>
       </c>
@@ -21718,10 +21712,10 @@
         <v>-3.9783289202967236</v>
       </c>
       <c r="Q25" s="19">
-        <v>0.16101158429892315</v>
+        <v>0.16101158429892443</v>
       </c>
       <c r="S25" s="20">
-        <v>0.64751185464639383</v>
+        <v>0.64751185464639349</v>
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="1"/>
@@ -21733,7 +21727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:26">
       <c r="C26" t="s">
         <v>45</v>
       </c>
@@ -21761,21 +21755,21 @@
         <v>0</v>
       </c>
       <c r="Q26" s="19">
-        <v>0.15399490886064546</v>
+        <v>0.15399490886064554</v>
       </c>
       <c r="S26" s="20">
-        <v>0.19999999999999923</v>
+        <v>0.2</v>
       </c>
       <c r="T26" s="6" t="s">
         <v>26</v>
       </c>
       <c r="U26" s="4">
         <f>-O26*Q25</f>
-        <v>0.26753186866430823</v>
+        <v>0.26753186866431033</v>
       </c>
       <c r="V26" s="4"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:26">
       <c r="C27" t="s">
         <v>46</v>
       </c>
@@ -21807,10 +21801,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="20">
-        <v>0.70004040540572232</v>
+        <v>0.70004040540572343</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:26">
       <c r="C28" t="s">
         <v>45</v>
       </c>
@@ -21838,10 +21832,10 @@
         <v>0</v>
       </c>
       <c r="S28" s="20">
-        <v>0.19999999999999901</v>
+        <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:26">
       <c r="C29" t="s">
         <v>47</v>
       </c>
@@ -21870,10 +21864,10 @@
         <v>4.005616072115366</v>
       </c>
       <c r="S29" s="20">
-        <v>0.19999999999999951</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:26">
       <c r="C30" t="s">
         <v>45</v>
       </c>
@@ -21901,10 +21895,10 @@
         <v>0</v>
       </c>
       <c r="S30" s="20">
-        <v>0.35595039650151278</v>
+        <v>0.35595039650151911</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:26">
       <c r="C31" t="s">
         <v>46</v>
       </c>
@@ -21936,10 +21930,10 @@
         <v>1.8483288249870145</v>
       </c>
       <c r="S31" s="20">
-        <v>0.97063504577822668</v>
+        <v>0.97063504577823023</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:26">
       <c r="C32" t="s">
         <v>45</v>
       </c>
@@ -21967,35 +21961,35 @@
         <v>-2.0877988068150684</v>
       </c>
       <c r="S32" s="20">
-        <v>0.20000000000000118</v>
+        <v>0.20000000000000012</v>
       </c>
     </row>
-    <row r="33" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="18:23">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="18:23">
       <c r="T34" t="s">
         <v>42</v>
       </c>
       <c r="U34" s="7">
         <f>U22+U24+U26+U28+U30+U32</f>
-        <v>0.96987665864736283</v>
+        <v>0.96987665864737072</v>
       </c>
       <c r="V34" s="7">
         <f>V21+V23+V25+V27+V29+V31</f>
-        <v>1.6905808999856662</v>
+        <v>1.6905808999856657</v>
       </c>
     </row>
-    <row r="35" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="18:23">
       <c r="U35" s="6" t="s">
         <v>21</v>
       </c>
       <c r="V35" s="8">
         <f>U34+V34</f>
-        <v>2.6604575586330288</v>
+        <v>2.6604575586330363</v>
       </c>
     </row>
-    <row r="36" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="18:23">
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -22005,17 +21999,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="U19:V19"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/DOCP_optimization_3bus_example.xlsx
+++ b/DOCP_optimization_3bus_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pm.deoliveiradejes\Dropbox\Ongoing Research\software3\Urda3bus_dynamicchanges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pm.deoliveiradejes/Dropbox (Personal)/Ongoing Research/software3/Urda3bus_dynamicchanges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5DBC2D-B30D-47CF-A489-36E9A11BF4D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA37032-9C96-3847-A1C9-249A559233A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="465" windowWidth="37920" windowHeight="23220" activeTab="1" xr2:uid="{A2977F88-2306-084C-88E0-6AF9B986A493}"/>
+    <workbookView xWindow="1900" yWindow="780" windowWidth="37920" windowHeight="23220" activeTab="1" xr2:uid="{A2977F88-2306-084C-88E0-6AF9B986A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Three_bus_without_transients" sheetId="4" r:id="rId1"/>
@@ -112,12 +112,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
   <si>
     <t>B</t>
   </si>
@@ -151,6 +159,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Symbol"/>
+        <family val="1"/>
         <charset val="2"/>
       </rPr>
       <t>b</t>
@@ -172,6 +181,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Symbol"/>
+        <family val="1"/>
         <charset val="2"/>
       </rPr>
       <t>b</t>
@@ -193,6 +203,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Symbol"/>
+        <family val="1"/>
         <charset val="2"/>
       </rPr>
       <t>g</t>
@@ -214,6 +225,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Symbol"/>
+        <family val="1"/>
         <charset val="2"/>
       </rPr>
       <t>g</t>
@@ -241,6 +253,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Symbol"/>
+        <family val="1"/>
         <charset val="2"/>
       </rPr>
       <t>q</t>
@@ -273,6 +286,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Symbol"/>
+        <family val="1"/>
         <charset val="2"/>
       </rPr>
       <t>q</t>
@@ -315,31 +329,10 @@
     <t>Td=</t>
   </si>
   <si>
-    <t>Tul1</t>
-  </si>
-  <si>
-    <t>Trl1*</t>
-  </si>
-  <si>
     <t>Objective function</t>
   </si>
   <si>
     <t>T111=</t>
-  </si>
-  <si>
-    <t>T531=</t>
-  </si>
-  <si>
-    <t>T321=</t>
-  </si>
-  <si>
-    <t>=T*211</t>
-  </si>
-  <si>
-    <t>=T*421</t>
-  </si>
-  <si>
-    <t>=T*631</t>
   </si>
   <si>
     <t>Constraint type:</t>
@@ -373,9 +366,6 @@
   </si>
   <si>
     <t>On the importance of considering  dynamic changes on network topology on the optimal coordination of overcurrent protections, submitted to IJEPES</t>
-  </si>
-  <si>
-    <t>sum()</t>
   </si>
   <si>
     <t>a1=</t>
@@ -413,6 +403,24 @@
   <si>
     <t>T =</t>
   </si>
+  <si>
+    <t>T212_0=</t>
+  </si>
+  <si>
+    <t>T111_0=</t>
+  </si>
+  <si>
+    <t>T321_0=</t>
+  </si>
+  <si>
+    <t>T531_0=</t>
+  </si>
+  <si>
+    <t>T632_0=</t>
+  </si>
+  <si>
+    <t>T422_0=</t>
+  </si>
 </sst>
 </file>
 
@@ -423,7 +431,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -443,6 +451,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Symbol"/>
+      <family val="1"/>
       <charset val="2"/>
     </font>
     <font>
@@ -541,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -556,17 +565,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -597,24 +595,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -653,31 +648,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -686,22 +681,16 @@
     <xf numFmtId="166" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -716,28 +705,25 @@
     <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -749,19 +735,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,19 +759,25 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -833,8 +825,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8754867" y="575566"/>
-          <a:ext cx="4745613" cy="1926324"/>
+          <a:off x="8793843" y="587828"/>
+          <a:ext cx="4716709" cy="1987634"/>
           <a:chOff x="1999434" y="4061335"/>
           <a:chExt cx="4713081" cy="1951348"/>
         </a:xfrm>
@@ -9829,8 +9821,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7601857" y="7343321"/>
-          <a:ext cx="4744831" cy="1996705"/>
+          <a:off x="7496024" y="7237488"/>
+          <a:ext cx="4732735" cy="1966467"/>
           <a:chOff x="1999434" y="4061335"/>
           <a:chExt cx="4713081" cy="1951348"/>
         </a:xfrm>
@@ -18620,23 +18612,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>635001</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133779</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>403</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>330040</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>54426</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>182941</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34383</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="347" name="Picture 346">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780EAA79-91B7-A0FB-7271-B705DB9F9322}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBB23DA-D891-6CC5-4D2F-188B0F22A9F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18652,8 +18644,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11411858" y="5322636"/>
-          <a:ext cx="4584539" cy="1716790"/>
+          <a:off x="11567986" y="3698120"/>
+          <a:ext cx="2267455" cy="1765513"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18664,23 +18656,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>208645</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9072</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>148166</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>77397</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>146958</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243414</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>151983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="348" name="Picture 347">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6732A721-635F-AB21-28EB-3CAF1B30CF45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C9AB08-102E-424B-BB4A-D4F2FAFAE31E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18696,140 +18688,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12681859" y="7991929"/>
-          <a:ext cx="2236395" cy="537029"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>212069</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>119049</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBB23DA-D891-6CC5-4D2F-188B0F22A9F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12685283" y="3556000"/>
-          <a:ext cx="2264432" cy="1751906"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>255877</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>185058</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B32194-195D-BA77-D2EA-68431352D5AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12609285" y="7066644"/>
-          <a:ext cx="2487449" cy="901700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>36321</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>7974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF9350C-A64F-CACB-FF35-4B3C556287EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2712357" y="6622178"/>
-          <a:ext cx="4245429" cy="2566082"/>
+          <a:off x="1195916" y="6614583"/>
+          <a:ext cx="5990165" cy="4194817"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18842,7 +18702,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -19143,88 +19003,88 @@
   </sheetPr>
   <dimension ref="B1:Y37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.125" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="10" width="4.375" customWidth="1"/>
-    <col min="11" max="15" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="1.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="10" width="4.33203125" customWidth="1"/>
+    <col min="11" max="15" width="7.6640625" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="18" width="7.625" customWidth="1"/>
-    <col min="19" max="22" width="8.875" customWidth="1"/>
-    <col min="23" max="23" width="9.875" customWidth="1"/>
-    <col min="24" max="25" width="6.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.6640625" customWidth="1"/>
+    <col min="19" max="22" width="8.83203125" customWidth="1"/>
+    <col min="23" max="23" width="9.83203125" customWidth="1"/>
+    <col min="24" max="25" width="6.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="2.5" customWidth="1"/>
-    <col min="28" max="28" width="5.125" customWidth="1"/>
+    <col min="28" max="28" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
+        <v>30</v>
+      </c>
+      <c r="Q3" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64" t="s">
+      <c r="G4" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62" t="s">
+      <c r="N4" s="60"/>
+      <c r="O4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="10">
+      <c r="P4" s="60"/>
+      <c r="Q4" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="9">
         <v>0.14000000000000001</v>
       </c>
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="2:25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -19270,16 +19130,16 @@
       <c r="P5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="10">
+      <c r="Q5" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="9">
         <v>0.02</v>
       </c>
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -19307,30 +19167,30 @@
       <c r="J6" s="2">
         <v>4</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <v>4.9935567066415301</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <v>0.81938924518843603</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="49">
         <f>alpha1/((K6/pick1)^alpha2-1)</f>
         <v>2.4198802517424123</v>
       </c>
-      <c r="N6" s="55">
+      <c r="N6" s="51">
         <f>alpha1/((L6/pick5)^alpha2-1)</f>
         <v>2.9393121905661372</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="28">
         <v>-88.4646474753105</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="28">
         <v>-80.604043407960503</v>
       </c>
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="2:25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -19358,33 +19218,33 @@
       <c r="J7" s="1">
         <v>5</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <v>2.7750472166961999</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="26">
         <v>1.0377390252476899</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="50">
         <f>alpha1/((K7/pick3)^alpha2-1)</f>
         <v>2.5921036814039367</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="47">
         <f>alpha1/((L7/pick1)^alpha2-1)</f>
         <v>5.5708240881443452</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="29">
         <v>-87.130922301660107</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="29">
         <v>-82.307873303575704</v>
       </c>
-      <c r="R7" s="25" t="s">
-        <v>39</v>
+      <c r="R7" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="X7"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="2:25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -19412,24 +19272,24 @@
       <c r="J8" s="1">
         <v>6</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <v>4.5678925413162803</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="26">
         <v>2.24680669339494</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="50">
         <f>alpha1/((K8/pick5 )^alpha2-1)</f>
         <v>1.6615690717484448</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="47">
         <f>alpha1/((L8/pick3)^alpha2-1)</f>
         <v>2.8243845089623703</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="29">
         <v>-87.940362353104007</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="29">
         <v>-85.810252395574096</v>
       </c>
       <c r="Q8">
@@ -19441,54 +19301,7 @@
       <c r="X8"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="2:25">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4</v>
-      </c>
-      <c r="K9" s="27">
-        <v>0.95628709849623705</v>
-      </c>
-      <c r="L9" s="27">
-        <v>0.18353622353322699</v>
-      </c>
-      <c r="M9" s="39">
-        <f>alpha1/((K9/pick2 )^alpha2-1)</f>
-        <v>2.4588959262470138</v>
-      </c>
-      <c r="N9" s="40">
-        <f>alpha1/((L9/pick4)^alpha2-1)</f>
-        <v>-26.167373235946066</v>
-      </c>
-      <c r="O9" s="30">
-        <v>-82.7224869956367</v>
-      </c>
-      <c r="P9" s="30">
-        <v>-85.635256713454794</v>
-      </c>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="Q9">
         <v>2</v>
       </c>
@@ -19498,54 +19311,7 @@
       <c r="X9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="2:25">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>6</v>
-      </c>
-      <c r="I10" s="1">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1">
-        <v>5</v>
-      </c>
-      <c r="K10" s="27">
-        <v>2.5331953718824001</v>
-      </c>
-      <c r="L10" s="27">
-        <v>0.61920913214346796</v>
-      </c>
-      <c r="M10" s="39">
-        <f>alpha1/((K10/pick4 )^alpha2-1)</f>
-        <v>2.9009336144677293</v>
-      </c>
-      <c r="N10" s="39">
-        <f>alpha1/((L10/pick6)^alpha2-1)</f>
-        <v>6.1242649236742253</v>
-      </c>
-      <c r="O10" s="30">
-        <v>-85.715789030776804</v>
-      </c>
-      <c r="P10" s="30">
-        <v>-78.657773180947999</v>
-      </c>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="Q10">
         <v>3</v>
       </c>
@@ -19555,54 +19321,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="2:25">
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>6</v>
-      </c>
-      <c r="K11" s="27">
-        <v>0.87258813688678705</v>
-      </c>
-      <c r="L11" s="27">
-        <v>0.77631252338074497</v>
-      </c>
-      <c r="M11" s="39">
-        <f>alpha1/((K11/pick6 )^alpha2-1)</f>
-        <v>4.6820781666402311</v>
-      </c>
-      <c r="N11" s="39">
-        <f>alpha1/((L11/pick2)^alpha2-1)</f>
-        <v>2.6647474157122635</v>
-      </c>
-      <c r="O11" s="31">
-        <v>-80.236952056368594</v>
-      </c>
-      <c r="P11" s="31">
-        <v>98.803925817726807</v>
-      </c>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="Q11">
         <v>4</v>
       </c>
@@ -19612,54 +19331,7 @@
       <c r="X11"/>
       <c r="Y11"/>
     </row>
-    <row r="12" spans="2:25">
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>6</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>4</v>
-      </c>
-      <c r="K12" s="26">
-        <v>1.03775664870642</v>
-      </c>
-      <c r="L12" s="26">
-        <v>0.61918184210603699</v>
-      </c>
-      <c r="M12" s="36">
-        <f>alpha1/((K12/pick1)^alpha2-1)</f>
-        <v>5.570746906584211</v>
-      </c>
-      <c r="N12" s="36">
-        <f>alpha1/((L12/pick5)^alpha2-1)</f>
-        <v>3.3511647974222418</v>
-      </c>
-      <c r="O12" s="32">
-        <v>-82.3078652212197</v>
-      </c>
-      <c r="P12" s="32">
-        <v>101.34249076990599</v>
-      </c>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="Q12">
         <v>5</v>
       </c>
@@ -19669,54 +19341,7 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="2:25">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5</v>
-      </c>
-      <c r="K13" s="27">
-        <v>2.2468918301626601</v>
-      </c>
-      <c r="L13" s="27">
-        <v>0.77635090748702296</v>
-      </c>
-      <c r="M13" s="39">
-        <f>alpha1/((K13/pick3)^alpha2-1)</f>
-        <v>2.8243391882495099</v>
-      </c>
-      <c r="N13" s="39">
-        <f>alpha1/((L13/pick1)^alpha2-1)</f>
-        <v>7.2922716858196868</v>
-      </c>
-      <c r="O13" s="30">
-        <v>-85.810660635763597</v>
-      </c>
-      <c r="P13" s="30">
-        <v>-81.196489729773802</v>
-      </c>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="Q13">
         <v>6</v>
       </c>
@@ -19726,58 +19351,11 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="2:25">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1">
-        <v>6</v>
-      </c>
-      <c r="K14" s="27">
-        <v>0.81944068227845002</v>
-      </c>
-      <c r="L14" s="27">
-        <v>0.18348215767811901</v>
-      </c>
-      <c r="M14" s="39">
-        <f>alpha1/((K14/pick5 )^alpha2-1)</f>
-        <v>2.9392310268024175</v>
-      </c>
-      <c r="N14" s="40">
-        <f>alpha1/((L14/pick3)^alpha2-1)</f>
-        <v>-81.276575849171039</v>
-      </c>
-      <c r="O14" s="31">
-        <v>-80.604371095961994</v>
-      </c>
-      <c r="P14" s="31">
-        <v>94.365221058154205</v>
-      </c>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="2:25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -19805,30 +19383,30 @@
       <c r="J15" s="1">
         <v>4</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="26">
         <v>4.2733606847961996</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="26">
         <v>2.5331190189894199</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15" s="50">
         <f>alpha1/((K15/pick2 )^alpha2-1)</f>
         <v>1.5719492157165942</v>
       </c>
-      <c r="N15" s="51">
+      <c r="N15" s="47">
         <f>alpha1/((L15/pick4)^alpha2-1)</f>
         <v>2.9009715997713097</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="29">
         <v>-87.4617228601563</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="29">
         <v>-85.715535882699896</v>
       </c>
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="2:25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -19856,30 +19434,30 @@
       <c r="J16" s="1">
         <v>5</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="26">
         <v>3.1875752154586698</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="26">
         <v>0.87256935270486102</v>
       </c>
-      <c r="M16" s="54">
+      <c r="M16" s="50">
         <f>alpha1/((K16/pick4 )^alpha2-1)</f>
         <v>2.6370922564260635</v>
       </c>
-      <c r="N16" s="51">
+      <c r="N16" s="47">
         <f>alpha1/((L16/pick6)^alpha2-1)</f>
         <v>4.6821476001100226</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="29">
         <v>-87.339388668555401</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="29">
         <v>-80.236925442144098</v>
       </c>
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="2:25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
@@ -19907,93 +19485,93 @@
       <c r="J17" s="4">
         <v>6</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="27">
         <v>5.1332934700163504</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="27">
         <v>0.95622517626859704</v>
       </c>
-      <c r="M17" s="57">
+      <c r="M17" s="53">
         <f>alpha1/((K17/pick6 )^alpha2-1)</f>
         <v>2.0877988068150684</v>
       </c>
-      <c r="N17" s="56">
+      <c r="N17" s="52">
         <f>alpha1/((L17/pick2)^alpha2-1)</f>
         <v>2.4589550433974443</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="32">
         <v>-88.647366786117601</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="32">
         <v>-82.7220401338042</v>
       </c>
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="2:25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="2:25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
       <c r="S19" s="1"/>
-      <c r="T19" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
+      <c r="T19" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="2:25">
-      <c r="K20" s="61" t="s">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="K20" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="11" t="s">
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="S20" s="10" t="s">
         <v>1</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="2:25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="54">
         <f>-M6</f>
         <v>-2.4198802517424123</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <v>0</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="13">
         <v>0</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="13">
         <v>0</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="55">
         <f>N6</f>
         <v>2.9393121905661372</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="13">
         <v>0</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="18">
         <v>0.11292431200074263</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="19">
         <f t="array" ref="S21:S26">MMULT(K21:P26,Q21:Q26)</f>
         <v>0.20000000000000007</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U21" s="1">
         <f>-K21*Q21</f>
@@ -20002,38 +19580,38 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="2:25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J22">
         <v>2</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>0</v>
       </c>
-      <c r="L22" s="58">
+      <c r="L22" s="54">
         <f>-M15</f>
         <v>-1.5719492157165942</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="13">
         <v>0</v>
       </c>
-      <c r="N22" s="59">
+      <c r="N22" s="55">
         <f>N15</f>
         <v>2.9009715997713097</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="13">
         <v>0</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="13">
         <v>0</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="18">
         <v>0.20323633354449649</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S22" s="19">
         <v>0.19999999999999996</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="U22" s="1">
         <f>-L22*Q22</f>
@@ -20042,41 +19620,41 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="2:25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J23">
         <v>3</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="55">
         <f>N7</f>
         <v>5.5708240881443452</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="13">
         <v>0</v>
       </c>
-      <c r="M23" s="58">
+      <c r="M23" s="54">
         <f>-M7</f>
         <v>-2.5921036814039367</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="13">
         <v>0</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="13">
         <v>0</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="13">
         <v>0</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="18">
         <v>0.16553407200072537</v>
       </c>
-      <c r="R23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="20">
+      <c r="R23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="19">
         <v>0.20000000000000007</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="U23" s="1">
         <f>-M23*Q23</f>
@@ -20085,38 +19663,38 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="2:25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J24">
         <v>4</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <v>0</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="13">
         <v>0</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="13">
         <v>0</v>
       </c>
-      <c r="N24" s="58">
+      <c r="N24" s="54">
         <f>-M16</f>
         <v>-2.6370922564260635</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="13">
         <v>0</v>
       </c>
-      <c r="P24" s="59">
+      <c r="P24" s="55">
         <f>N16</f>
         <v>4.6821476001100226</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="18">
         <v>0.17907007264784633</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24" s="19">
         <v>0.1999999999999999</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="U24" s="1">
         <f>-N24*Q24</f>
@@ -20125,38 +19703,38 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="2:25">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J25">
         <v>5</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <v>0</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="13">
         <v>0</v>
       </c>
-      <c r="M25" s="59">
+      <c r="M25" s="55">
         <f>N8</f>
         <v>2.8243845089623703</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="13">
         <v>0</v>
       </c>
-      <c r="O25" s="58">
+      <c r="O25" s="54">
         <f>-M8</f>
         <v>-1.6615690717484448</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="13">
         <v>0</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="18">
         <v>0.16101158429892443</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S25" s="19">
         <v>0.2</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="U25" s="1">
         <f>-O25*Q25</f>
@@ -20165,38 +19743,38 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="2:25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J26">
         <v>6</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>0</v>
       </c>
-      <c r="L26" s="59">
+      <c r="L26" s="55">
         <f>N17</f>
         <v>2.4589550433974443</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="13">
         <v>0</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="13">
         <v>0</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="13">
         <v>0</v>
       </c>
-      <c r="P26" s="58">
+      <c r="P26" s="54">
         <f>-M17</f>
         <v>-2.0877988068150684</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="18">
         <v>0.14357178785254271</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="19">
         <v>0.2</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="U26" s="1">
         <f>-P26*Q26</f>
@@ -20205,26 +19783,26 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="28" spans="2:25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
       <c r="T28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="U28" s="60">
+        <v>46</v>
+      </c>
+      <c r="U28" s="56">
         <f>SUM(U21:U26)</f>
         <v>2.0613271630758909</v>
       </c>
     </row>
-    <row r="33" spans="18:21">
+    <row r="33" spans="18:21" x14ac:dyDescent="0.2">
       <c r="U33" s="1"/>
     </row>
-    <row r="35" spans="18:21">
+    <row r="35" spans="18:21" x14ac:dyDescent="0.2">
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="18:21">
+    <row r="36" spans="18:21" x14ac:dyDescent="0.2">
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="18:21">
+    <row r="37" spans="18:21" x14ac:dyDescent="0.2">
       <c r="U37" s="1"/>
     </row>
   </sheetData>
@@ -20250,109 +19828,109 @@
   </sheetPr>
   <dimension ref="B1:AC36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.125" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="10" width="4.375" customWidth="1"/>
-    <col min="11" max="15" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="1.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="10" width="4.33203125" customWidth="1"/>
+    <col min="11" max="15" width="7.6640625" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="18" width="7.625" customWidth="1"/>
-    <col min="19" max="22" width="8.875" customWidth="1"/>
-    <col min="23" max="23" width="9.875" customWidth="1"/>
-    <col min="24" max="25" width="6.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.6640625" customWidth="1"/>
+    <col min="19" max="22" width="8.83203125" customWidth="1"/>
+    <col min="23" max="23" width="9.83203125" customWidth="1"/>
+    <col min="24" max="25" width="6.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="2.5" customWidth="1"/>
-    <col min="28" max="28" width="5.125" customWidth="1"/>
+    <col min="28" max="28" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="63"/>
+        <v>34</v>
+      </c>
+      <c r="AB1" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="61"/>
     </row>
-    <row r="2" spans="2:29">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="10">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="9">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:29">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB3" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC3" s="10">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="9">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="2:29">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64" t="s">
+      <c r="G4" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="64"/>
-      <c r="O4" s="62" t="s">
+      <c r="N4" s="62"/>
+      <c r="O4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62" t="s">
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62" t="s">
+      <c r="R4" s="60"/>
+      <c r="S4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62" t="s">
+      <c r="T4" s="60"/>
+      <c r="U4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="62"/>
+      <c r="V4" s="60"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="2:29">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -20416,23 +19994,23 @@
       <c r="V5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="W5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="24" t="s">
-        <v>33</v>
+      <c r="X5" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Z5" s="24" t="s">
+      <c r="Z5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="25" t="s">
-        <v>39</v>
+      <c r="AC5" s="24" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:29">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -20460,57 +20038,57 @@
       <c r="J6" s="2">
         <v>4</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <v>4.9935567066415301</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <v>0.81938924518843603</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <v>5.2129405710194598</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <v>1.04696250186329</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="39">
         <f>alpha1/((K6/pick1)^alpha2-1)</f>
         <v>2.4198802517424123</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="33">
         <f>alpha1/((L6/pick5)^alpha2-1)</f>
         <v>2.9393121905661372</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="34">
         <f>alpha1/((M6/pick1)^alpha2-1)</f>
         <v>2.3824046402333932</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="34">
         <f>alpha1/((N6/pick5)^alpha2-1)</f>
         <v>2.6526177379217097</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="28">
         <v>-88.4646474753105</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="28">
         <v>-80.604043407960503</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="28">
         <v>-87.6683723558927</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="28">
         <v>-78.314296202961899</v>
       </c>
-      <c r="W6" s="36">
+      <c r="W6" s="34">
         <f>O9*(R6/P6-Q6/O6)</f>
         <v>-0.201755810497737</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="20">
         <v>2</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="Y6" s="20">
         <v>1</v>
       </c>
-      <c r="Z6" s="36">
+      <c r="Z6" s="34">
         <f>O9*(-Q6/O6)</f>
         <v>-2.4208160963022087</v>
       </c>
@@ -20521,7 +20099,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="2:29">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -20549,57 +20127,57 @@
       <c r="J7" s="1">
         <v>5</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <v>2.7750472166961999</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="26">
         <v>1.0377390252476899</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="26">
         <v>3.0055568540890598</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="26">
         <v>1.2749228154113399</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="41">
         <f>alpha1/((K7/pick3)^alpha2-1)</f>
         <v>2.5921036814039367</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="35">
         <f>alpha1/((L7/pick1)^alpha2-1)</f>
         <v>5.5708240881443452</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="36">
         <f>alpha1/((M7/pick3)^alpha2-1)</f>
         <v>2.5137526913109784</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R7" s="36">
         <f>alpha1/((N7/pick1)^alpha2-1)</f>
         <v>4.768405914022491</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="29">
         <v>-87.130922301660107</v>
       </c>
-      <c r="T7" s="30">
+      <c r="T7" s="29">
         <v>-82.307873303575704</v>
       </c>
-      <c r="U7" s="30">
+      <c r="U7" s="29">
         <v>-85.534980971600902</v>
       </c>
-      <c r="V7" s="30">
+      <c r="V7" s="29">
         <v>-79.424709674563601</v>
       </c>
-      <c r="W7" s="39">
+      <c r="W7" s="36">
         <f>O10*(R7/P7-Q7/O7)</f>
         <v>-0.33016281547187143</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7" s="21">
         <v>4</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="Y7" s="21">
         <v>2</v>
       </c>
-      <c r="Z7" s="39">
+      <c r="Z7" s="36">
         <f>O10*(-Q7/O7)</f>
         <v>-2.8132476848816159</v>
       </c>
@@ -20610,7 +20188,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="2:29">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -20638,57 +20216,57 @@
       <c r="J8" s="1">
         <v>6</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <v>4.5678925413162803</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="26">
         <v>2.24680669339494</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="26">
         <v>4.7672411290991503</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="26">
         <v>2.4488370440864098</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="41">
         <f>alpha1/((K8/pick5 )^alpha2-1)</f>
         <v>1.6615690717484448</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="35">
         <f>alpha1/((L8/pick3)^alpha2-1)</f>
         <v>2.8243845089623703</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="36">
         <f>alpha1/((M8/pick5)^alpha2-1)</f>
         <v>1.6434933765984809</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="36">
         <f>alpha1/((N8/pick3)^alpha2-1)</f>
         <v>2.7249386085289435</v>
       </c>
-      <c r="S8" s="30">
+      <c r="S8" s="29">
         <v>-87.940362353104007</v>
       </c>
-      <c r="T8" s="30">
+      <c r="T8" s="29">
         <v>-85.810252395574096</v>
       </c>
-      <c r="U8" s="30">
+      <c r="U8" s="29">
         <v>-87.116949709134801</v>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="29">
         <v>-84.381232151381496</v>
       </c>
-      <c r="W8" s="39">
+      <c r="W8" s="36">
         <f>O11*(R8/P8-Q8/O8)</f>
         <v>-0.11391997030340151</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8" s="21">
         <v>6</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="Y8" s="21">
         <v>3</v>
       </c>
-      <c r="Z8" s="39">
+      <c r="Z8" s="36">
         <f>O11*(-Q8/O8)</f>
         <v>-4.6311432888506285</v>
       </c>
@@ -20699,7 +20277,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="2:29">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -20727,57 +20305,57 @@
       <c r="J9" s="1">
         <v>4</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="26">
         <v>0.95628709849623705</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="26">
         <v>0.18353622353322699</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="26">
         <v>1.23337245627931</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="26">
         <v>0.75459297255862301</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="36">
         <f>alpha1/((K9/pick2 )^alpha2-1)</f>
         <v>2.4588959262470138</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="37">
         <f>alpha1/((L9/pick4)^alpha2-1)</f>
         <v>-26.167373235946066</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="41">
         <f>alpha1/((M9/pick2)^alpha2-1)</f>
         <v>2.2461610856809844</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="36">
         <f>alpha1/((N9/pick4)^alpha2-1)</f>
         <v>6.0409248136539633</v>
       </c>
-      <c r="S9" s="30">
+      <c r="S9" s="29">
         <v>-82.7224869956367</v>
       </c>
-      <c r="T9" s="30">
+      <c r="T9" s="29">
         <v>-85.635256713454794</v>
       </c>
-      <c r="U9" s="30">
+      <c r="U9" s="29">
         <v>-79.237543192436107</v>
       </c>
-      <c r="V9" s="30">
+      <c r="V9" s="29">
         <v>-77.058746236934397</v>
       </c>
-      <c r="W9" s="39">
+      <c r="W9" s="36">
         <f>O6*(R9/P9-Q9/O9)</f>
         <v>-2.7691675289173658</v>
       </c>
-      <c r="X9" s="22">
+      <c r="X9" s="21">
         <v>1</v>
       </c>
-      <c r="Y9" s="22">
+      <c r="Y9" s="21">
         <v>1</v>
       </c>
-      <c r="Z9" s="48">
+      <c r="Z9" s="44">
         <f>O6*(-Q9/O9)</f>
         <v>-2.2105209071486667</v>
       </c>
@@ -20788,7 +20366,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="10" spans="2:29">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -20816,57 +20394,57 @@
       <c r="J10" s="1">
         <v>5</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="26">
         <v>2.5331953718824001</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="26">
         <v>0.61920913214346796</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="26">
         <v>2.7676348005785698</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="26">
         <v>0.90163978238753795</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="36">
         <f>alpha1/((K10/pick4 )^alpha2-1)</f>
         <v>2.9009336144677293</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="46">
         <f>alpha1/((L10/pick6)^alpha2-1)</f>
         <v>6.1242649236742253</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="41">
         <f>alpha1/((M10/pick4)^alpha2-1)</f>
         <v>2.7934280343266304</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="38">
         <f>alpha1/((N10/pick6)^alpha2-1)</f>
         <v>4.5787414372637594</v>
       </c>
-      <c r="S10" s="30">
+      <c r="S10" s="29">
         <v>-85.715789030776804</v>
       </c>
-      <c r="T10" s="30">
+      <c r="T10" s="29">
         <v>-78.657773180947999</v>
       </c>
-      <c r="U10" s="30">
+      <c r="U10" s="29">
         <v>-84.083209148817204</v>
       </c>
-      <c r="V10" s="30">
+      <c r="V10" s="29">
         <v>-75.599391781347407</v>
       </c>
-      <c r="W10" s="48">
+      <c r="W10" s="44">
         <f>O7*(R10/P10-Q10/O10)</f>
         <v>-0.55808430964136146</v>
       </c>
-      <c r="X10" s="22">
+      <c r="X10" s="21">
         <v>3</v>
       </c>
-      <c r="Y10" s="22">
+      <c r="Y10" s="21">
         <v>2</v>
       </c>
-      <c r="Z10" s="39">
+      <c r="Z10" s="36">
         <f>O7*(-Q10/O10)</f>
         <v>-2.4960430171179881</v>
       </c>
@@ -20877,7 +20455,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="11" spans="2:29">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -20905,57 +20483,57 @@
       <c r="J11" s="1">
         <v>6</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="26">
         <v>0.87258813688678705</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="26">
         <v>0.77631252338074497</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="26">
         <v>1.1273197983005501</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="26">
         <v>0.24751664322241601</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="36">
         <f>alpha1/((K11/pick6 )^alpha2-1)</f>
         <v>4.6820781666402311</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11" s="46">
         <f>alpha1/((L11/pick2)^alpha2-1)</f>
         <v>2.6647474157122635</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="41">
         <f>alpha1/((M11/pick6)^alpha2-1)</f>
         <v>3.9783289202967236</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="38">
         <f>alpha1/((N11/pick2)^alpha2-1)</f>
         <v>4.8698802305396756</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="30">
         <v>-80.236952056368594</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="30">
         <v>98.803925817726807</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="29">
         <v>-77.1249844809048</v>
       </c>
-      <c r="V11" s="30">
+      <c r="V11" s="29">
         <v>-69.587533796804607</v>
       </c>
-      <c r="W11" s="39">
+      <c r="W11" s="36">
         <f>O8*(R11/P11-Q11/O11)</f>
         <v>1.6247277888440443</v>
       </c>
-      <c r="X11" s="22">
+      <c r="X11" s="21">
         <v>5</v>
       </c>
-      <c r="Y11" s="22">
+      <c r="Y11" s="21">
         <v>3</v>
       </c>
-      <c r="Z11" s="48">
+      <c r="Z11" s="44">
         <f>O8*(-Q11/O11)</f>
         <v>-1.4118235655067717</v>
       </c>
@@ -20966,7 +20544,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="2:29">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
@@ -20994,62 +20572,62 @@
       <c r="J12" s="2">
         <v>4</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="25">
         <v>1.03775664870642</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="25">
         <v>0.61918184210603699</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="25">
         <v>1.28366000138847</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="25">
         <v>0.25780917091029598</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="34">
         <f>alpha1/((K12/pick1)^alpha2-1)</f>
         <v>5.570746906584211</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="34">
         <f>alpha1/((L12/pick5)^alpha2-1)</f>
         <v>3.3511647974222418</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="Q12" s="39">
         <f>alpha1/((M12/pick1)^alpha2-1)</f>
         <v>4.7456772412951214</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R12" s="40">
         <f>alpha1/((N12/pick5)^alpha2-1)</f>
         <v>5.9121921164861497</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="31">
         <v>-82.3078652212197</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="31">
         <v>101.34249076990599</v>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="28">
         <v>-79.208288332904601</v>
       </c>
-      <c r="V12" s="29">
+      <c r="V12" s="28">
         <v>-69.854212179862401</v>
       </c>
-      <c r="W12" s="36">
+      <c r="W12" s="34">
         <f>O15*(R12/P12-Q12/O12)</f>
         <v>1.4341326475914611</v>
       </c>
-      <c r="X12" s="21">
+      <c r="X12" s="20">
         <v>2</v>
       </c>
-      <c r="Y12" s="21">
+      <c r="Y12" s="20">
         <v>1</v>
       </c>
-      <c r="Z12" s="49">
+      <c r="Z12" s="45">
         <f>O15*(-Q12/O12)</f>
         <v>-1.3391316716759885</v>
       </c>
     </row>
-    <row r="13" spans="2:29">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -21077,62 +20655,62 @@
       <c r="J13" s="1">
         <v>5</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="26">
         <v>2.2468918301626601</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="26">
         <v>0.77635090748702296</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="26">
         <v>2.4892158229768202</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="26">
         <v>1.0558968600843699</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="41">
         <f>alpha1/((K13/pick3)^alpha2-1)</f>
         <v>2.8243391882495099</v>
       </c>
-      <c r="P13" s="38">
+      <c r="P13" s="35">
         <f>alpha1/((L13/pick1)^alpha2-1)</f>
         <v>7.2922716858196868</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="36">
         <f>alpha1/((M13/pick3)^alpha2-1)</f>
         <v>2.7068175147391553</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="36">
         <f>alpha1/((N13/pick1)^alpha2-1)</f>
         <v>5.4930749831007137</v>
       </c>
-      <c r="S13" s="30">
+      <c r="S13" s="29">
         <v>-85.810660635763597</v>
       </c>
-      <c r="T13" s="30">
+      <c r="T13" s="29">
         <v>-81.196489729773802</v>
       </c>
-      <c r="U13" s="30">
+      <c r="U13" s="29">
         <v>-83.931626462032</v>
       </c>
-      <c r="V13" s="30">
+      <c r="V13" s="29">
         <v>-77.821355166127603</v>
       </c>
-      <c r="W13" s="39">
+      <c r="W13" s="36">
         <f>O16*(R13/P13-Q13/O13)</f>
         <v>-0.54091028671331021</v>
       </c>
-      <c r="X13" s="22">
+      <c r="X13" s="21">
         <v>4</v>
       </c>
-      <c r="Y13" s="22">
+      <c r="Y13" s="21">
         <v>2</v>
       </c>
-      <c r="Z13" s="39">
+      <c r="Z13" s="36">
         <f>O16*(-Q13/O13)</f>
         <v>-2.5273619887352097</v>
       </c>
     </row>
-    <row r="14" spans="2:29">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -21160,62 +20738,62 @@
       <c r="J14" s="1">
         <v>6</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="26">
         <v>0.81944068227845002</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="26">
         <v>0.18348215767811901</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="26">
         <v>1.0991436176800899</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="26">
         <v>0.56460823662146697</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="36">
         <f>alpha1/((K14/pick5 )^alpha2-1)</f>
         <v>2.9392310268024175</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="37">
         <f>alpha1/((L14/pick3)^alpha2-1)</f>
         <v>-81.276575849171039</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="Q14" s="41">
         <f>alpha1/((M14/pick5)^alpha2-1)</f>
         <v>2.6021019900967399</v>
       </c>
-      <c r="R14" s="41">
+      <c r="R14" s="38">
         <f>alpha1/((N14/pick3)^alpha2-1)</f>
         <v>6.6751839509987354</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="30">
         <v>-80.604371095961994</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="30">
         <v>94.365221058154205</v>
       </c>
-      <c r="U14" s="30">
+      <c r="U14" s="29">
         <v>-77.215576809516705</v>
       </c>
-      <c r="V14" s="30">
+      <c r="V14" s="29">
         <v>-74.479859251885102</v>
       </c>
-      <c r="W14" s="39">
+      <c r="W14" s="36">
         <f>O17*(R14/P14-Q14/O14)</f>
         <v>-2.0197981683071462</v>
       </c>
-      <c r="X14" s="22">
+      <c r="X14" s="21">
         <v>6</v>
       </c>
-      <c r="Y14" s="22">
+      <c r="Y14" s="21">
         <v>3</v>
       </c>
-      <c r="Z14" s="48">
+      <c r="Z14" s="44">
         <f>O17*(-Q14/O14)</f>
         <v>-1.8483288249870145</v>
       </c>
     </row>
-    <row r="15" spans="2:29">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -21243,62 +20821,62 @@
       <c r="J15" s="1">
         <v>4</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="26">
         <v>4.2733606847961996</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="26">
         <v>2.5331190189894199</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="26">
         <v>4.4773020109245101</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="26">
         <v>2.7392703771809499</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="41">
         <f>alpha1/((K15/pick2 )^alpha2-1)</f>
         <v>1.5719492157165942</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="35">
         <f>alpha1/((L15/pick4)^alpha2-1)</f>
         <v>2.9009715997713097</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="36">
         <f>alpha1/((M15/pick2)^alpha2-1)</f>
         <v>1.5542203539578834</v>
       </c>
-      <c r="R15" s="39">
+      <c r="R15" s="36">
         <f>alpha1/((N15/pick4)^alpha2-1)</f>
         <v>2.8055381708513862</v>
       </c>
-      <c r="S15" s="30">
+      <c r="S15" s="29">
         <v>-87.4617228601563</v>
       </c>
-      <c r="T15" s="30">
+      <c r="T15" s="29">
         <v>-85.715535882699896</v>
       </c>
-      <c r="U15" s="30">
+      <c r="U15" s="29">
         <v>-86.574604991033596</v>
       </c>
-      <c r="V15" s="30">
+      <c r="V15" s="29">
         <v>-84.395808034088702</v>
       </c>
-      <c r="W15" s="39">
+      <c r="W15" s="36">
         <f>O12*(R15/P15-Q15/O15)</f>
         <v>-0.12043281341877304</v>
       </c>
-      <c r="X15" s="22">
+      <c r="X15" s="21">
         <v>1</v>
       </c>
-      <c r="Y15" s="22">
+      <c r="Y15" s="21">
         <v>1</v>
       </c>
-      <c r="Z15" s="39">
+      <c r="Z15" s="36">
         <f>O12*(-Q15/O15)</f>
         <v>-5.5079185398582702</v>
       </c>
     </row>
-    <row r="16" spans="2:29">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -21326,62 +20904,62 @@
       <c r="J16" s="1">
         <v>5</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="26">
         <v>3.1875752154586698</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="26">
         <v>0.87256935270486102</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="26">
         <v>3.42053180652933</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="26">
         <v>1.1143405022216499</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="36">
         <f>alpha1/((K16/pick4 )^alpha2-1)</f>
         <v>2.6370922564260635</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="36">
         <f>alpha1/((L16/pick6)^alpha2-1)</f>
         <v>4.6821476001100226</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="41">
         <f>alpha1/((M16/pick4)^alpha2-1)</f>
         <v>2.5652570307301086</v>
       </c>
-      <c r="R16" s="41">
+      <c r="R16" s="38">
         <f>alpha1/((N16/pick6)^alpha2-1)</f>
         <v>4.005616072115366</v>
       </c>
-      <c r="S16" s="30">
+      <c r="S16" s="29">
         <v>-87.339388668555401</v>
       </c>
-      <c r="T16" s="30">
+      <c r="T16" s="29">
         <v>-80.236925442144098</v>
       </c>
-      <c r="U16" s="30">
+      <c r="U16" s="29">
         <v>-85.943871878100296</v>
       </c>
-      <c r="V16" s="30">
+      <c r="V16" s="29">
         <v>-77.460054511874404</v>
       </c>
-      <c r="W16" s="48">
+      <c r="W16" s="44">
         <f>O13*(R16/P16-Q16/O16)</f>
         <v>-0.33115771660727378</v>
       </c>
-      <c r="X16" s="22">
+      <c r="X16" s="21">
         <v>3</v>
       </c>
-      <c r="Y16" s="22">
+      <c r="Y16" s="21">
         <v>2</v>
       </c>
-      <c r="Z16" s="39">
+      <c r="Z16" s="36">
         <f>O13*(-Q16/O16)</f>
         <v>-2.7474032970096647</v>
       </c>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
@@ -21409,587 +20987,565 @@
       <c r="J17" s="4">
         <v>6</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="27">
         <v>5.1332934700163504</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="27">
         <v>0.95622517626859704</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="27">
         <v>5.3436225379577698</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="27">
         <v>1.1732567060927299</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="58">
         <f>alpha1/((K17/pick6 )^alpha2-1)</f>
         <v>2.0877988068150684</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="42">
         <f>alpha1/((L17/pick2)^alpha2-1)</f>
         <v>2.4589550433974443</v>
       </c>
-      <c r="Q17" s="47">
+      <c r="Q17" s="43">
         <f>alpha1/((M17/pick6)^alpha2-1)</f>
         <v>2.0614429079962568</v>
       </c>
-      <c r="R17" s="47">
+      <c r="R17" s="43">
         <f>alpha1/((N17/pick2)^alpha2-1)</f>
         <v>2.2850640364888073</v>
       </c>
-      <c r="S17" s="33">
+      <c r="S17" s="32">
         <v>-88.647366786117601</v>
       </c>
-      <c r="T17" s="33">
+      <c r="T17" s="32">
         <v>-82.7220401338042</v>
       </c>
-      <c r="U17" s="33">
+      <c r="U17" s="32">
         <v>-87.891158418673498</v>
       </c>
-      <c r="V17" s="33">
+      <c r="V17" s="32">
         <v>-80.353707734131802</v>
       </c>
-      <c r="W17" s="47">
+      <c r="W17" s="43">
         <f>O14*(R17/P17-Q17/O17)</f>
         <v>-0.17075070903760023</v>
       </c>
-      <c r="X17" s="23">
+      <c r="X17" s="22">
         <v>5</v>
       </c>
-      <c r="Y17" s="23">
+      <c r="Y17" s="22">
         <v>3</v>
       </c>
-      <c r="Z17" s="47">
+      <c r="Z17" s="43">
         <f>O14*(-Q17/O17)</f>
         <v>-2.9021268406640557</v>
       </c>
     </row>
-    <row r="18" spans="2:26">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="2:26">
-      <c r="U19" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="V19" s="65"/>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="U19" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" s="63"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="11" t="s">
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="S20" s="10" t="s">
         <v>1</v>
-      </c>
-      <c r="U20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V20" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" s="12">
-        <f>Z9</f>
-        <v>-2.2105209071486667</v>
-      </c>
-      <c r="L21" s="13">
+      <c r="K21" s="11">
+        <f>-Z9</f>
+        <v>2.2105209071486667</v>
+      </c>
+      <c r="L21" s="12">
         <f>-Q9</f>
         <v>-2.2461610856809844</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="13">
         <v>0</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="14">
         <f>R9</f>
         <v>6.0409248136539633</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="13">
         <v>0</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="13">
         <v>0</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="18">
         <v>0.11292431200074263</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="19">
         <f t="array" ref="S21:S32">MMULT(K21:P32,Q21:Q26)</f>
-        <v>0.384716616885457</v>
-      </c>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2">
-        <f>U22+(Q9*(Q22-(U22)/(O9)))</f>
-        <v>0.50002148886966324</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>0.88395972209149831</v>
+      </c>
+      <c r="T21" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" s="2">
+        <f>-Q22*L28</f>
+        <v>0.33338870753021377</v>
+      </c>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
     </row>
-    <row r="22" spans="2:26">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <f>-O6</f>
         <v>-2.4198802517424123</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="13">
         <v>0</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="13">
         <v>0</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="13">
         <v>0</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="16">
         <f>P6</f>
         <v>2.9393121905661372</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="13">
         <v>0</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="18">
         <v>0.21208618204515853</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S22" s="19">
         <v>0.20000000000000007</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="U22" s="1">
         <f>-K22*Q21</f>
         <v>0.27326331255219577</v>
       </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="10"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J23">
         <v>3</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>0</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="13">
         <v>0</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <f>-W10</f>
         <v>0.55808430964136146</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="12">
         <f>-Q10</f>
         <v>-2.7934280343266304</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="13">
         <v>0</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="14">
         <f>R10</f>
         <v>4.5787414372637594</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="18">
         <v>0.16553407200072537</v>
       </c>
-      <c r="R23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="20">
+      <c r="R23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="19">
         <v>0.28386968674528629</v>
       </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1">
-        <f>U24+(O10*(Q24-(U24)/(Q10)))</f>
-        <v>0.51686844553692535</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="T23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U23" s="1">
+        <f>Q24*O16</f>
+        <v>0.48487038977007496</v>
+      </c>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J24">
         <v>4</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="16">
         <f>P7</f>
         <v>5.5708240881443452</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="13">
         <v>0</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="15">
         <f>-O7</f>
         <v>-2.5921036814039367</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="13">
         <v>0</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="13">
         <v>0</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="13">
         <v>0</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="18">
         <v>0.18386553924632076</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24" s="19">
         <v>0.20000000000000007</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="U24" s="1">
         <f>-M24*Q23</f>
         <v>0.42908147743086456</v>
       </c>
-      <c r="V24" s="1"/>
-      <c r="W24" s="10"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>5</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <v>0</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="14">
         <f>R11</f>
         <v>4.8698802305396756</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="13">
         <v>0</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="13">
         <v>0</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="11">
         <f>-Z11</f>
         <v>1.4118235655067717</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25" s="17">
         <f>-Q11</f>
         <v>-3.9783289202967236</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="18">
         <v>0.16101158429892443</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S25" s="19">
         <v>0.64751185464639349</v>
       </c>
-      <c r="T25" s="6"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1">
-        <f>U26+(O11*(Q26-(U26)/(Q11)))</f>
-        <v>0.67369096557907726</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="T25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U25" s="1">
+        <f>-P32*Q26</f>
+        <v>0.32151038697485096</v>
+      </c>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="2:26">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J26">
         <v>6</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>0</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="13">
         <v>0</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="16">
         <f>P8</f>
         <v>2.8243845089623703</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="13">
         <v>0</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="15">
         <f>-O8</f>
         <v>-1.6615690717484448</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="13">
         <v>0</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="18">
         <v>0.15399490886064554</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="19">
         <v>0.2</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="U26" s="4">
         <f>-O26*Q25</f>
         <v>0.26753186866431033</v>
       </c>
-      <c r="V26" s="4"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="12">
         <f>-Q12</f>
         <v>-4.7456772412951214</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="11">
         <f>-Z12</f>
         <v>1.3391316716759885</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="13">
         <v>0</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="13">
         <v>0</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="14">
         <f>R12</f>
         <v>5.9121921164861497</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="13">
         <v>0</v>
       </c>
-      <c r="S27" s="20">
+      <c r="S27" s="19">
         <v>0.70004040540572343</v>
       </c>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J28">
         <v>8</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <v>0</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="15">
         <f>-O15</f>
         <v>-1.5719492157165942</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="13">
         <v>0</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="16">
         <f>P15</f>
         <v>2.9009715997713097</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="13">
         <v>0</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="13">
         <v>0</v>
       </c>
-      <c r="S28" s="20">
+      <c r="S28" s="19">
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J29">
         <v>9</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <v>0</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="13">
         <v>0</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="11">
         <f>-W16</f>
         <v>0.33115771660727378</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="12">
         <f>-Q16</f>
         <v>-2.5652570307301086</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="13">
         <v>0</v>
       </c>
-      <c r="P29" s="15">
+      <c r="P29" s="14">
         <f>R16</f>
         <v>4.005616072115366</v>
       </c>
-      <c r="S29" s="20">
+      <c r="S29" s="19">
         <v>0.1999999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:26">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>10</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="16">
         <f>P13</f>
         <v>7.2922716858196868</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="13">
         <v>0</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="15">
         <f>-O13</f>
         <v>-2.8243391882495099</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="13">
         <v>0</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30" s="13">
         <v>0</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="13">
         <v>0</v>
       </c>
-      <c r="S30" s="20">
+      <c r="S30" s="19">
         <v>0.35595039650151911</v>
       </c>
     </row>
-    <row r="31" spans="2:26">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>11</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="13">
         <v>0</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="13">
         <v>0</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="14">
         <f>R14</f>
         <v>6.6751839509987354</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="13">
         <v>0</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="12">
         <f>-Q14</f>
         <v>-2.6021019900967399</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="11">
         <f>-Z14</f>
         <v>1.8483288249870145</v>
       </c>
-      <c r="S31" s="20">
+      <c r="S31" s="19">
         <v>0.97063504577823023</v>
       </c>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J32">
         <v>12</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="13">
         <v>0</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="16">
         <f>P17</f>
         <v>2.4589550433974443</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="13">
         <v>0</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="13">
         <v>0</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="13">
         <v>0</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32" s="15">
         <f>-O17</f>
         <v>-2.0877988068150684</v>
       </c>
-      <c r="S32" s="20">
+      <c r="S32" s="19">
         <v>0.20000000000000012</v>
       </c>
     </row>
-    <row r="33" spans="18:23">
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="18:23">
-      <c r="T34" t="s">
-        <v>42</v>
-      </c>
-      <c r="U34" s="7">
-        <f>U22+U24+U26+U28+U30+U32</f>
-        <v>0.96987665864737072</v>
-      </c>
-      <c r="V34" s="7">
-        <f>V21+V23+V25+V27+V29+V31</f>
-        <v>1.6905808999856657</v>
-      </c>
-    </row>
-    <row r="35" spans="18:23">
+    <row r="35" spans="18:23" x14ac:dyDescent="0.2">
       <c r="U35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V35" s="8">
-        <f>U34+V34</f>
-        <v>2.6604575586330363</v>
+      <c r="V35" s="7">
+        <f>SUM(U21:U26)</f>
+        <v>2.1096461429225104</v>
       </c>
     </row>
-    <row r="36" spans="18:23">
+    <row r="36" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -21999,17 +21555,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="U19:V19"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
